--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/利润总额.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,272 @@
         <v>372.92</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3122.96</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1022.22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2240.45</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8222.42</v>
+      </c>
+      <c r="H11" t="n">
+        <v>683.08</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6430.68</v>
+      </c>
+      <c r="J11" t="n">
+        <v>493.28</v>
+      </c>
+      <c r="K11" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>408.11</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-45.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>852.4400000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3591.43</v>
+      </c>
+      <c r="P11" t="n">
+        <v>536.28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>482.51</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1838.48</v>
+      </c>
+      <c r="S11" t="n">
+        <v>452.39</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5646.29</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1188.09</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7168.33</v>
+      </c>
+      <c r="W11" t="n">
+        <v>908.88</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1935.95</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4756.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>674.74</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2738.32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1627.02</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1346.34</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>883.92</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>92933.03</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9018.57</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3356.11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>958.12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2771.18</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>73.62</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2532.38</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>714.95</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>6032.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>495.73</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1738.87</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>4567.01</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>833.04</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3056.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1017.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1901.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7302.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4288.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>431.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>471.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>772.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2571.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>743.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>436.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1644</v>
+      </c>
+      <c r="S12" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5319.6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1323.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10202</v>
+      </c>
+      <c r="W12" t="n">
+        <v>763.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3154</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5915.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>614.4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>451.4</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>3545</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1000.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>763.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>84038.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7389.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3250.3</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>621.1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3116.3</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>73</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2065.7</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>768.7</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>4759</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>480.9</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1797.9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>594.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
